--- a/Portfolio/scripts/output/201910/康力泉/康力泉整体资产配置.xlsx
+++ b/Portfolio/scripts/output/201910/康力泉/康力泉整体资产配置.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\finance-data\Portfolio\scripts\output\201910\康力泉\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09201DE4-8C52-45EB-8614-2B0FAA24A73C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{880A9AFC-D4D8-4067-8C63-8F1ED53108DD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9012" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -903,7 +903,7 @@
   <dimension ref="A1:K69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1031,16 +1031,16 @@
         <v>90010</v>
       </c>
       <c r="C4" s="9">
-        <v>1.6566000000000001</v>
+        <v>1.6559999999999999</v>
       </c>
       <c r="D4" s="10">
-        <v>1934.77</v>
+        <v>2001.67</v>
       </c>
       <c r="E4" s="10">
-        <v>3278.86</v>
+        <v>3254.72</v>
       </c>
       <c r="F4" s="10">
-        <v>-35.94</v>
+        <v>-60.08</v>
       </c>
       <c r="G4" s="11" t="s">
         <v>21</v>
@@ -1066,16 +1066,16 @@
         <v>501021</v>
       </c>
       <c r="C5" s="9">
-        <v>1.3456999999999999</v>
+        <v>1.3481000000000001</v>
       </c>
       <c r="D5" s="10">
-        <v>2203.12</v>
+        <v>2260.14</v>
       </c>
       <c r="E5" s="10">
-        <v>3255.35</v>
+        <v>3239.91</v>
       </c>
       <c r="F5" s="10">
-        <v>208.41</v>
+        <v>192.97</v>
       </c>
       <c r="G5" s="11" t="s">
         <v>27</v>
@@ -1101,16 +1101,16 @@
         <v>519671</v>
       </c>
       <c r="C6" s="9">
-        <v>1.4214</v>
+        <v>1.4222999999999999</v>
       </c>
       <c r="D6" s="10">
-        <v>2145.0100000000002</v>
+        <v>2224.19</v>
       </c>
       <c r="E6" s="10">
-        <v>3216.32</v>
+        <v>3202.83</v>
       </c>
       <c r="F6" s="10">
-        <v>52.83</v>
+        <v>39.340000000000003</v>
       </c>
       <c r="G6" s="11" t="s">
         <v>21</v>
@@ -1136,16 +1136,16 @@
         <v>3318</v>
       </c>
       <c r="C7" s="9">
-        <v>0.93579999999999997</v>
+        <v>0.93569999999999998</v>
       </c>
       <c r="D7" s="10">
-        <v>2808.67</v>
+        <v>2919.29</v>
       </c>
       <c r="E7" s="10">
-        <v>2724.99</v>
+        <v>2694.5</v>
       </c>
       <c r="F7" s="10">
-        <v>-6.7</v>
+        <v>-37.19</v>
       </c>
       <c r="G7" s="11" t="s">
         <v>21</v>
@@ -1177,10 +1177,10 @@
         <v>1126.01</v>
       </c>
       <c r="E8" s="10">
-        <v>2084.36</v>
+        <v>2069.61</v>
       </c>
       <c r="F8" s="10">
-        <v>74.959999999999994</v>
+        <v>60.21</v>
       </c>
       <c r="G8" s="11" t="s">
         <v>21</v>
@@ -1206,16 +1206,16 @@
         <v>530015</v>
       </c>
       <c r="C9" s="9">
-        <v>2.1074999999999999</v>
+        <v>2.1101000000000001</v>
       </c>
       <c r="D9" s="10">
-        <v>760.21</v>
+        <v>803.1</v>
       </c>
       <c r="E9" s="10">
-        <v>1728.66</v>
+        <v>1716.31</v>
       </c>
       <c r="F9" s="10">
-        <v>34.03</v>
+        <v>21.68</v>
       </c>
       <c r="G9" s="11" t="s">
         <v>21</v>
@@ -1247,10 +1247,10 @@
         <v>550.4</v>
       </c>
       <c r="E10" s="10">
-        <v>516.54999999999995</v>
+        <v>514.57000000000005</v>
       </c>
       <c r="F10" s="10">
-        <v>-24.34</v>
+        <v>-26.32</v>
       </c>
       <c r="G10" s="11" t="s">
         <v>21</v>
@@ -1276,16 +1276,16 @@
         <v>968</v>
       </c>
       <c r="C11" s="9">
-        <v>0.95789999999999997</v>
+        <v>0.95760000000000001</v>
       </c>
       <c r="D11" s="10">
-        <v>448.16</v>
+        <v>536.30999999999995</v>
       </c>
       <c r="E11" s="10">
-        <v>512.44000000000005</v>
+        <v>507.35</v>
       </c>
       <c r="F11" s="10">
-        <v>-1.1499999999999999</v>
+        <v>-6.24</v>
       </c>
       <c r="G11" s="11" t="s">
         <v>21</v>
@@ -1317,10 +1317,10 @@
         <v>531.87</v>
       </c>
       <c r="E12" s="10">
-        <v>414.33</v>
+        <v>410.5</v>
       </c>
       <c r="F12" s="10">
-        <v>57.55</v>
+        <v>53.72</v>
       </c>
       <c r="G12" s="11" t="s">
         <v>21</v>
@@ -1352,10 +1352,10 @@
         <v>247.91</v>
       </c>
       <c r="E13" s="10">
-        <v>328.48</v>
+        <v>325.75</v>
       </c>
       <c r="F13" s="10">
-        <v>15.22</v>
+        <v>12.49</v>
       </c>
       <c r="G13" s="11" t="s">
         <v>21</v>
@@ -1387,10 +1387,10 @@
         <v>60.61</v>
       </c>
       <c r="E14" s="10">
-        <v>88.3</v>
+        <v>87.95</v>
       </c>
       <c r="F14" s="10">
-        <v>-4.41</v>
+        <v>-4.76</v>
       </c>
       <c r="G14" s="11" t="s">
         <v>21</v>
@@ -1527,10 +1527,10 @@
         <v>16731.88</v>
       </c>
       <c r="E18" s="20">
-        <v>9093.77</v>
+        <v>9018.48</v>
       </c>
       <c r="F18" s="20">
-        <v>-2906.22</v>
+        <v>-2981.52</v>
       </c>
       <c r="G18" s="21" t="s">
         <v>21</v>
@@ -1562,10 +1562,10 @@
         <v>2700</v>
       </c>
       <c r="E19" s="25">
-        <v>8102.7</v>
+        <v>8124.3</v>
       </c>
       <c r="F19" s="25">
-        <v>1792.8</v>
+        <v>1814.4</v>
       </c>
       <c r="G19" s="26" t="s">
         <v>21</v>
@@ -1597,10 +1597,10 @@
         <v>9100</v>
       </c>
       <c r="E20" s="25">
-        <v>35917.699999999997</v>
+        <v>36036</v>
       </c>
       <c r="F20" s="25">
-        <v>4550</v>
+        <v>4668.3</v>
       </c>
       <c r="G20" s="26" t="s">
         <v>21</v>
@@ -1632,10 +1632,10 @@
         <v>38200</v>
       </c>
       <c r="E21" s="25">
-        <v>204446.4</v>
+        <v>204752</v>
       </c>
       <c r="F21" s="25">
-        <v>-9702.7999999999993</v>
+        <v>-9397.2000000000007</v>
       </c>
       <c r="G21" s="26" t="s">
         <v>21</v>
@@ -1667,10 +1667,10 @@
         <v>33800</v>
       </c>
       <c r="E22" s="25">
-        <v>24234.6</v>
+        <v>24268.400000000001</v>
       </c>
       <c r="F22" s="25">
-        <v>-5408</v>
+        <v>-5374.2</v>
       </c>
       <c r="G22" s="26" t="s">
         <v>21</v>
@@ -1702,10 +1702,10 @@
         <v>32700</v>
       </c>
       <c r="E23" s="25">
-        <v>30182.1</v>
+        <v>30247.5</v>
       </c>
       <c r="F23" s="25">
-        <v>4578</v>
+        <v>4643.3999999999996</v>
       </c>
       <c r="G23" s="26" t="s">
         <v>21</v>
@@ -1737,10 +1737,10 @@
         <v>34100</v>
       </c>
       <c r="E24" s="25">
-        <v>25711.4</v>
+        <v>25779.599999999999</v>
       </c>
       <c r="F24" s="25">
-        <v>-3921.5</v>
+        <v>-3853.3</v>
       </c>
       <c r="G24" s="26" t="s">
         <v>21</v>
@@ -1772,10 +1772,10 @@
         <v>4500</v>
       </c>
       <c r="E25" s="25">
-        <v>15106.5</v>
+        <v>15151.5</v>
       </c>
       <c r="F25" s="25">
-        <v>2254.5</v>
+        <v>2299.5</v>
       </c>
       <c r="G25" s="26" t="s">
         <v>87</v>
@@ -1807,10 +1807,10 @@
         <v>1200</v>
       </c>
       <c r="E26" s="25">
-        <v>3637.2</v>
+        <v>3643.2</v>
       </c>
       <c r="F26" s="25">
-        <v>97.2</v>
+        <v>103.2</v>
       </c>
       <c r="G26" s="26" t="s">
         <v>21</v>
@@ -1842,10 +1842,10 @@
         <v>9200</v>
       </c>
       <c r="E27" s="25">
-        <v>14867.2</v>
+        <v>14931.6</v>
       </c>
       <c r="F27" s="25">
-        <v>1996.4</v>
+        <v>2060.8000000000002</v>
       </c>
       <c r="G27" s="26" t="s">
         <v>21</v>
@@ -1877,10 +1877,10 @@
         <v>14400</v>
       </c>
       <c r="E28" s="25">
-        <v>19612.8</v>
+        <v>19900.8</v>
       </c>
       <c r="F28" s="25">
-        <v>1310.4000000000001</v>
+        <v>1598.4</v>
       </c>
       <c r="G28" s="26" t="s">
         <v>21</v>
@@ -1912,10 +1912,10 @@
         <v>3813.64</v>
       </c>
       <c r="E29" s="30">
-        <v>7574.65</v>
+        <v>7489.61</v>
       </c>
       <c r="F29" s="30">
-        <v>237.65</v>
+        <v>152.61000000000001</v>
       </c>
       <c r="G29" s="31" t="s">
         <v>21</v>
@@ -1947,10 +1947,10 @@
         <v>9722</v>
       </c>
       <c r="E30" s="30">
-        <v>5283.91</v>
+        <v>5240.16</v>
       </c>
       <c r="F30" s="30">
-        <v>-52.09</v>
+        <v>-95.84</v>
       </c>
       <c r="G30" s="31" t="s">
         <v>21</v>
@@ -1982,10 +1982,10 @@
         <v>4943.96</v>
       </c>
       <c r="E31" s="30">
-        <v>4722.97</v>
+        <v>4676.99</v>
       </c>
       <c r="F31" s="30">
-        <v>53.96</v>
+        <v>7.99</v>
       </c>
       <c r="G31" s="31" t="s">
         <v>21</v>
@@ -2017,10 +2017,10 @@
         <v>7379.54</v>
       </c>
       <c r="E32" s="30">
-        <v>4103.0200000000004</v>
+        <v>4051.37</v>
       </c>
       <c r="F32" s="30">
-        <v>101.02</v>
+        <v>49.37</v>
       </c>
       <c r="G32" s="31" t="s">
         <v>21</v>
@@ -2052,10 +2052,10 @@
         <v>4550.55</v>
       </c>
       <c r="E33" s="30">
-        <v>3499.37</v>
+        <v>3457.96</v>
       </c>
       <c r="F33" s="30">
-        <v>164.37</v>
+        <v>122.96</v>
       </c>
       <c r="G33" s="31" t="s">
         <v>21</v>
@@ -2087,10 +2087,10 @@
         <v>3055.68</v>
       </c>
       <c r="E34" s="30">
-        <v>3400.97</v>
+        <v>3379.58</v>
       </c>
       <c r="F34" s="30">
-        <v>65.97</v>
+        <v>44.58</v>
       </c>
       <c r="G34" s="31" t="s">
         <v>21</v>
@@ -2122,10 +2122,10 @@
         <v>736.3</v>
       </c>
       <c r="E35" s="30">
-        <v>701.03</v>
+        <v>700</v>
       </c>
       <c r="F35" s="30">
-        <v>34.03</v>
+        <v>33</v>
       </c>
       <c r="G35" s="31" t="s">
         <v>21</v>
@@ -2157,10 +2157,10 @@
         <v>400.63</v>
       </c>
       <c r="E36" s="30">
-        <v>700.14</v>
+        <v>699.14</v>
       </c>
       <c r="F36" s="30">
-        <v>33.14</v>
+        <v>32.14</v>
       </c>
       <c r="G36" s="31" t="s">
         <v>21</v>
@@ -2192,10 +2192,10 @@
         <v>281.57</v>
       </c>
       <c r="E37" s="30">
-        <v>279.88</v>
+        <v>277.68</v>
       </c>
       <c r="F37" s="30">
-        <v>-0.26</v>
+        <v>-2.46</v>
       </c>
       <c r="G37" s="31" t="s">
         <v>21</v>
@@ -2227,10 +2227,10 @@
         <v>5299.96</v>
       </c>
       <c r="E38" s="30">
-        <v>2061.6799999999998</v>
+        <v>2088.1799999999998</v>
       </c>
       <c r="F38" s="30">
-        <v>60.68</v>
+        <v>87.18</v>
       </c>
       <c r="G38" s="31" t="s">
         <v>87</v>
@@ -2262,10 +2262,10 @@
         <v>576.79999999999995</v>
       </c>
       <c r="E39" s="30">
-        <v>738.88</v>
+        <v>726.77</v>
       </c>
       <c r="F39" s="30">
-        <v>71.88</v>
+        <v>59.77</v>
       </c>
       <c r="G39" s="31" t="s">
         <v>27</v>
@@ -2297,10 +2297,10 @@
         <v>459.67</v>
       </c>
       <c r="E40" s="30">
-        <v>691.71</v>
+        <v>688.49</v>
       </c>
       <c r="F40" s="30">
-        <v>24.71</v>
+        <v>21.49</v>
       </c>
       <c r="G40" s="31" t="s">
         <v>27</v>
@@ -2332,10 +2332,10 @@
         <v>611.75</v>
       </c>
       <c r="E41" s="30">
-        <v>730.43</v>
+        <v>729.82</v>
       </c>
       <c r="F41" s="30">
-        <v>63.43</v>
+        <v>62.82</v>
       </c>
       <c r="G41" s="31" t="s">
         <v>117</v>
@@ -2367,10 +2367,10 @@
         <v>1046.73</v>
       </c>
       <c r="E42" s="30">
-        <v>2079.02</v>
+        <v>2055.67</v>
       </c>
       <c r="F42" s="30">
-        <v>79.02</v>
+        <v>55.67</v>
       </c>
       <c r="G42" s="31" t="s">
         <v>21</v>
@@ -2402,10 +2402,10 @@
         <v>1059.17</v>
       </c>
       <c r="E43" s="30">
-        <v>1077.18</v>
+        <v>1070.82</v>
       </c>
       <c r="F43" s="30">
-        <v>77.180000000000007</v>
+        <v>70.819999999999993</v>
       </c>
       <c r="G43" s="31" t="s">
         <v>21</v>
@@ -2437,10 +2437,10 @@
         <v>927.97</v>
       </c>
       <c r="E44" s="30">
-        <v>1032.83</v>
+        <v>1026.33</v>
       </c>
       <c r="F44" s="30">
-        <v>32.83</v>
+        <v>26.33</v>
       </c>
       <c r="G44" s="31" t="s">
         <v>21</v>
@@ -2472,10 +2472,10 @@
         <v>1227.03</v>
       </c>
       <c r="E45" s="30">
-        <v>943.59</v>
+        <v>932.42</v>
       </c>
       <c r="F45" s="30">
-        <v>-56.41</v>
+        <v>-67.58</v>
       </c>
       <c r="G45" s="31" t="s">
         <v>21</v>
@@ -2507,10 +2507,10 @@
         <v>1834.47</v>
       </c>
       <c r="E46" s="30">
-        <v>2287.58</v>
+        <v>2281.5300000000002</v>
       </c>
       <c r="F46" s="30">
-        <v>287.58</v>
+        <v>281.52999999999997</v>
       </c>
       <c r="G46" s="31" t="s">
         <v>87</v>
@@ -2542,10 +2542,10 @@
         <v>899.82</v>
       </c>
       <c r="E47" s="30">
-        <v>1152.67</v>
+        <v>1133.77</v>
       </c>
       <c r="F47" s="30">
-        <v>152.66999999999999</v>
+        <v>133.77000000000001</v>
       </c>
       <c r="G47" s="31" t="s">
         <v>27</v>
@@ -2577,10 +2577,10 @@
         <v>689.02</v>
       </c>
       <c r="E48" s="30">
-        <v>1036.8399999999999</v>
+        <v>1032.01</v>
       </c>
       <c r="F48" s="30">
-        <v>36.840000000000003</v>
+        <v>32.01</v>
       </c>
       <c r="G48" s="31" t="s">
         <v>27</v>
@@ -2612,10 +2612,10 @@
         <v>953.96</v>
       </c>
       <c r="E49" s="30">
-        <v>1139.03</v>
+        <v>1138.07</v>
       </c>
       <c r="F49" s="30">
-        <v>139.03</v>
+        <v>138.07</v>
       </c>
       <c r="G49" s="31" t="s">
         <v>117</v>
@@ -2647,10 +2647,10 @@
         <v>2204.19</v>
       </c>
       <c r="E50" s="30">
-        <v>857.43</v>
+        <v>868.45</v>
       </c>
       <c r="F50" s="30">
-        <v>-142.57</v>
+        <v>-131.55000000000001</v>
       </c>
       <c r="G50" s="31" t="s">
         <v>87</v>
@@ -2682,10 +2682,10 @@
         <v>65064.33</v>
       </c>
       <c r="E51" s="35">
-        <v>72416.59</v>
+        <v>71961.14</v>
       </c>
       <c r="F51" s="35">
-        <v>6096.59</v>
+        <v>5641.14</v>
       </c>
       <c r="G51" s="36" t="s">
         <v>21</v>
@@ -2717,10 +2717,10 @@
         <v>63490</v>
       </c>
       <c r="E52" s="35">
-        <v>60651.99</v>
+        <v>60061.54</v>
       </c>
       <c r="F52" s="35">
-        <v>2451.9899999999998</v>
+        <v>1861.54</v>
       </c>
       <c r="G52" s="36" t="s">
         <v>21</v>
@@ -2752,10 +2752,10 @@
         <v>32370.29</v>
       </c>
       <c r="E53" s="35">
-        <v>37109.300000000003</v>
+        <v>36940.97</v>
       </c>
       <c r="F53" s="35">
-        <v>5109.3</v>
+        <v>4940.97</v>
       </c>
       <c r="G53" s="36" t="s">
         <v>125</v>
@@ -2787,10 +2787,10 @@
         <v>41014.879999999997</v>
       </c>
       <c r="E54" s="35">
-        <v>35260.49</v>
+        <v>35006.199999999997</v>
       </c>
       <c r="F54" s="35">
-        <v>4700.49</v>
+        <v>4446.2</v>
       </c>
       <c r="G54" s="36" t="s">
         <v>21</v>
@@ -2822,10 +2822,10 @@
         <v>20086.63</v>
       </c>
       <c r="E55" s="35">
-        <v>33645.1</v>
+        <v>33564.75</v>
       </c>
       <c r="F55" s="35">
-        <v>1645.1</v>
+        <v>1564.75</v>
       </c>
       <c r="G55" s="36" t="s">
         <v>125</v>
@@ -2857,10 +2857,10 @@
         <v>20716.63</v>
       </c>
       <c r="E56" s="35">
-        <v>24735.65</v>
+        <v>24714.93</v>
       </c>
       <c r="F56" s="35">
-        <v>2135.65</v>
+        <v>2114.9299999999998</v>
       </c>
       <c r="G56" s="36" t="s">
         <v>117</v>
@@ -2892,10 +2892,10 @@
         <v>14624.61</v>
       </c>
       <c r="E57" s="35">
-        <v>23969.73</v>
+        <v>23838.11</v>
       </c>
       <c r="F57" s="35">
-        <v>4769.7299999999996</v>
+        <v>4638.1099999999997</v>
       </c>
       <c r="G57" s="36" t="s">
         <v>21</v>
@@ -2927,10 +2927,10 @@
         <v>21163.93</v>
       </c>
       <c r="E58" s="35">
-        <v>23309.95</v>
+        <v>23214.71</v>
       </c>
       <c r="F58" s="35">
-        <v>4109.95</v>
+        <v>4014.71</v>
       </c>
       <c r="G58" s="36" t="s">
         <v>21</v>
@@ -2962,10 +2962,10 @@
         <v>16778.47</v>
       </c>
       <c r="E59" s="35">
-        <v>21493.22</v>
+        <v>21140.87</v>
       </c>
       <c r="F59" s="35">
-        <v>2293.2199999999998</v>
+        <v>1940.87</v>
       </c>
       <c r="G59" s="36" t="s">
         <v>27</v>
@@ -2997,10 +2997,10 @@
         <v>9529.81</v>
       </c>
       <c r="E60" s="35">
-        <v>15552.64</v>
+        <v>15333.46</v>
       </c>
       <c r="F60" s="35">
-        <v>2752.64</v>
+        <v>2533.46</v>
       </c>
       <c r="G60" s="36" t="s">
         <v>21</v>
@@ -3032,10 +3032,10 @@
         <v>37267.449999999997</v>
       </c>
       <c r="E61" s="35">
-        <v>14497.03</v>
+        <v>14683.37</v>
       </c>
       <c r="F61" s="35">
-        <v>-4702.97</v>
+        <v>-4516.63</v>
       </c>
       <c r="G61" s="36" t="s">
         <v>87</v>
@@ -3067,10 +3067,10 @@
         <v>6798.52</v>
       </c>
       <c r="E62" s="35">
-        <v>10230.41</v>
+        <v>10182.82</v>
       </c>
       <c r="F62" s="35">
-        <v>330.41</v>
+        <v>282.82</v>
       </c>
       <c r="G62" s="36" t="s">
         <v>27</v>
@@ -3102,10 +3102,10 @@
         <v>4791.13</v>
       </c>
       <c r="E63" s="35">
-        <v>8372.9699999999993</v>
+        <v>8361</v>
       </c>
       <c r="F63" s="35">
-        <v>1972.97</v>
+        <v>1961</v>
       </c>
       <c r="G63" s="36" t="s">
         <v>21</v>
@@ -3137,10 +3137,10 @@
         <v>5609.79</v>
       </c>
       <c r="E64" s="35">
-        <v>7584.43</v>
+        <v>7573.21</v>
       </c>
       <c r="F64" s="35">
-        <v>2439.31</v>
+        <v>2428.09</v>
       </c>
       <c r="G64" s="36" t="s">
         <v>125</v>
@@ -3172,10 +3172,10 @@
         <v>13403.92</v>
       </c>
       <c r="E65" s="35">
-        <v>7285.03</v>
+        <v>7224.71</v>
       </c>
       <c r="F65" s="35">
-        <v>885.03</v>
+        <v>824.71</v>
       </c>
       <c r="G65" s="36" t="s">
         <v>21</v>
@@ -3207,10 +3207,10 @@
         <v>5328.62</v>
       </c>
       <c r="E66" s="35">
-        <v>7211.75</v>
+        <v>7172.32</v>
       </c>
       <c r="F66" s="35">
-        <v>811.75</v>
+        <v>772.32</v>
       </c>
       <c r="G66" s="36" t="s">
         <v>125</v>
@@ -3242,10 +3242,10 @@
         <v>7778.64</v>
       </c>
       <c r="E67" s="35">
-        <v>6835.86</v>
+        <v>6758.08</v>
       </c>
       <c r="F67" s="35">
-        <v>-164.14</v>
+        <v>-241.92</v>
       </c>
       <c r="G67" s="36" t="s">
         <v>21</v>
@@ -3277,10 +3277,10 @@
         <v>7852.99</v>
       </c>
       <c r="E68" s="35">
-        <v>6038.94</v>
+        <v>5967.48</v>
       </c>
       <c r="F68" s="35">
-        <v>-361.06</v>
+        <v>-432.52</v>
       </c>
       <c r="G68" s="36" t="s">
         <v>21</v>
@@ -3312,10 +3312,10 @@
         <v>3580.2</v>
       </c>
       <c r="E69" s="35">
-        <v>3444.15</v>
+        <v>3408.7</v>
       </c>
       <c r="F69" s="35">
-        <v>-55.85</v>
+        <v>-91.3</v>
       </c>
       <c r="G69" s="36" t="s">
         <v>21</v>
